--- a/account_sale_purchase_accruals/doc/accruals - dropship.xlsx
+++ b/account_sale_purchase_accruals/doc/accruals - dropship.xlsx
@@ -156,9 +156,6 @@
     <t>120600</t>
   </si>
   <si>
-    <t>Purchase Order Confirm</t>
-  </si>
-  <si>
     <t>Customer Invoice Validate</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Expense is booked at Invoice Validation time to ensure that both Income and Cost is booked in the financial reporting period.</t>
+  </si>
+  <si>
+    <t>Purchase Order Approve</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>41</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>23</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="R4" s="26"/>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>23</v>
@@ -913,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="15">
         <v>42444</v>
@@ -1014,7 +1014,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>23</v>
@@ -1045,10 +1045,10 @@
         <v>24</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>23</v>
@@ -1149,7 +1149,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>23</v>
@@ -1180,10 +1180,10 @@
         <v>24</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>34</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>23</v>
@@ -1284,7 +1284,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>23</v>
@@ -1315,10 +1315,10 @@
         <v>24</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>23</v>
@@ -1419,7 +1419,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="19">
         <v>42444</v>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>23</v>
@@ -1532,7 +1532,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>23</v>
@@ -1623,26 +1623,26 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
